--- a/testcase/QA Assignment Test Cases.xlsx
+++ b/testcase/QA Assignment Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backbase\QA-Assignment\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F01120-46E4-4D7E-8609-2B76D4595526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2CECB-E697-463A-9A36-7AD49EE082F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BA0AF972-7997-47E7-8B92-E5F75FD6BFAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BA0AF972-7997-47E7-8B92-E5F75FD6BFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="488">
   <si>
     <t>Test Cases</t>
   </si>
@@ -4308,6 +4308,12 @@
   </si>
   <si>
     <t>Def-12-Ev001.png</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>Test Execution Summary</t>
   </si>
 </sst>
 </file>
@@ -4844,7 +4850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4917,6 +4923,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4935,22 +4947,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4972,15 +4978,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4989,14 +4986,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5004,40 +5028,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5055,45 +5061,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5411,8 +5430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4353E4B0-60DF-41F5-BA50-8F137BF941E7}">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5424,16 +5443,16 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -5491,32 +5510,32 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="48" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5762,23 +5781,23 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="K24" s="104" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="K24" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
@@ -5805,19 +5824,19 @@
       <c r="I25" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="L25" s="106" t="s">
+      <c r="L25" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="106" t="s">
+      <c r="M25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="106" t="s">
+      <c r="N25" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="106" t="s">
+      <c r="O25" s="49" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5890,24 +5909,24 @@
       <c r="K27" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L27" s="107">
+      <c r="L27" s="50">
         <f>L26/$K$26</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="M27" s="107">
+      <c r="M27" s="50">
         <f t="shared" ref="M27:O27" si="0">M26/$K$26</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="N27" s="107">
+      <c r="N27" s="50">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="O27" s="107">
+      <c r="O27" s="50">
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37">
         <v>3</v>
       </c>
@@ -5933,7 +5952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="37">
         <v>4</v>
       </c>
@@ -5956,6 +5975,12 @@
         <v>31</v>
       </c>
       <c r="I29" s="38"/>
+      <c r="K29" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="37">
@@ -5980,6 +6005,18 @@
         <v>31</v>
       </c>
       <c r="I30" s="38"/>
+      <c r="K30" s="112" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="113" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="37">
@@ -6006,8 +6043,20 @@
       <c r="I31" s="38" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K31" s="37">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2">
+        <v>13</v>
+      </c>
+      <c r="N31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37">
         <v>7</v>
       </c>
@@ -6031,6 +6080,21 @@
       </c>
       <c r="I32" s="38" t="s">
         <v>96</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="L32" s="114">
+        <f>L31/$K$31</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="M32" s="114">
+        <f t="shared" ref="M32:O32" si="1">M31/$K$31</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="N32" s="115">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -6603,11 +6667,12 @@
     </row>
   </sheetData>
   <autoFilter ref="B25:I55" xr:uid="{342EAB13-C2F6-4156-B2A7-C361D3B09E2B}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K29:N29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6619,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F3114D-ECC4-4462-8230-CDB75153EA2A}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,46 +6701,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="106" t="s">
+      <c r="N2" s="49" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7192,8 +7257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F573A46-9DD0-48FD-B530-9E15E1B9820F}">
   <dimension ref="A2:R116"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q6"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7277,31 +7342,31 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="71" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -7318,26 +7383,26 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="58"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
@@ -7356,20 +7421,20 @@
       <c r="O5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="73"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="76"/>
     </row>
     <row r="6" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="82"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="14" t="s">
         <v>61</v>
       </c>
@@ -7388,36 +7453,36 @@
       <c r="O6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="96"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="71" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -7434,26 +7499,26 @@
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="72" t="s">
+      <c r="R7" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="58"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
@@ -7468,20 +7533,20 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="73"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="76"/>
     </row>
     <row r="9" spans="1:18" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="82"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="14" t="s">
         <v>51</v>
       </c>
@@ -7498,36 +7563,36 @@
       <c r="O9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="96"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="77"/>
     </row>
     <row r="10" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -7544,26 +7609,26 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="72" t="s">
+      <c r="R10" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="58"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
@@ -7578,20 +7643,20 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="73"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="76"/>
     </row>
     <row r="12" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="82"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="14" t="s">
         <v>66</v>
       </c>
@@ -7610,36 +7675,36 @@
       <c r="O12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="96"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="71" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -7656,26 +7721,26 @@
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="63" t="s">
+      <c r="R13" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="58"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
@@ -7690,20 +7755,20 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="64"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="58"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="1" t="s">
         <v>81</v>
       </c>
@@ -7718,20 +7783,20 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="64"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="1:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="82"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="14" t="s">
         <v>82</v>
       </c>
@@ -7746,36 +7811,36 @@
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="81"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="78"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="71" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -7792,26 +7857,26 @@
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="63" t="s">
+      <c r="R17" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="58"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="1" t="s">
         <v>29</v>
       </c>
@@ -7826,20 +7891,20 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="64"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="66"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="59"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="18" t="s">
         <v>62</v>
       </c>
@@ -7854,36 +7919,36 @@
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="65"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="71" t="s">
         <v>93</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -7900,26 +7965,26 @@
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="72" t="s">
+      <c r="R20" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="58"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="1" t="s">
         <v>89</v>
       </c>
@@ -7934,20 +7999,20 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="73"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="76"/>
     </row>
     <row r="22" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="82"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="14" t="s">
         <v>92</v>
       </c>
@@ -7966,36 +8031,36 @@
       <c r="O22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="96"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="77"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="75" t="s">
+      <c r="I23" s="83" t="s">
         <v>100</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -8012,26 +8077,26 @@
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="76" t="s">
+      <c r="P23" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="99" t="s">
+      <c r="Q23" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="R23" s="102" t="s">
+      <c r="R23" s="88" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="58"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="1" t="s">
         <v>89</v>
       </c>
@@ -8046,20 +8111,20 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="102"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="88"/>
     </row>
     <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="58"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="1" t="s">
         <v>113</v>
       </c>
@@ -8078,20 +8143,20 @@
       <c r="O25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="102"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="88"/>
     </row>
     <row r="26" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="18" t="s">
         <v>114</v>
       </c>
@@ -8106,36 +8171,36 @@
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="72" t="s">
         <v>111</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -8152,26 +8217,26 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="61" t="s">
+      <c r="P27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="61" t="s">
+      <c r="Q27" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="97" t="s">
+      <c r="R27" s="81" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="58"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="1" t="s">
         <v>115</v>
       </c>
@@ -8186,20 +8251,20 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="97"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="81"/>
     </row>
     <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="58"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="1" t="s">
         <v>120</v>
       </c>
@@ -8214,20 +8279,20 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="97"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="81"/>
     </row>
     <row r="30" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="59"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="18" t="s">
         <v>123</v>
       </c>
@@ -8246,36 +8311,36 @@
       <c r="O30" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="98"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="82"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="71" t="s">
         <v>128</v>
       </c>
       <c r="J31" s="11" t="s">
@@ -8292,26 +8357,26 @@
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="60" t="s">
+      <c r="P31" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="60" t="s">
+      <c r="Q31" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="72" t="s">
+      <c r="R31" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="58"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="1" t="s">
         <v>129</v>
       </c>
@@ -8326,20 +8391,20 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="73"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="76"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="58"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="1" t="s">
         <v>130</v>
       </c>
@@ -8358,20 +8423,20 @@
       <c r="O33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="73"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="76"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="58"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
@@ -8386,20 +8451,20 @@
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="73"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="76"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="58"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="1" t="s">
         <v>136</v>
       </c>
@@ -8414,20 +8479,20 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="73"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="76"/>
     </row>
     <row r="36" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="82"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="28" t="s">
         <v>139</v>
       </c>
@@ -8442,36 +8507,36 @@
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="96"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="77"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="H37" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="90" t="s">
         <v>149</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -8488,26 +8553,26 @@
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="87" t="s">
+      <c r="P37" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Q37" s="87" t="s">
+      <c r="Q37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R37" s="90" t="s">
+      <c r="R37" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="89"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="91"/>
       <c r="J38" s="1" t="s">
         <v>148</v>
       </c>
@@ -8522,20 +8587,20 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="91"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="93"/>
     </row>
     <row r="39" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="1" t="s">
         <v>154</v>
       </c>
@@ -8550,36 +8615,36 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="77"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="96"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="87" t="s">
+      <c r="H40" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="84" t="s">
+      <c r="I40" s="90" t="s">
         <v>157</v>
       </c>
       <c r="J40" s="11" t="s">
@@ -8596,26 +8661,26 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="87" t="s">
+      <c r="P40" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Q40" s="87" t="s">
+      <c r="Q40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R40" s="90" t="s">
+      <c r="R40" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="89"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="91"/>
       <c r="J41" s="1" t="s">
         <v>159</v>
       </c>
@@ -8630,20 +8695,20 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="91"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="93"/>
     </row>
     <row r="42" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="89"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="91"/>
       <c r="J42" s="18" t="s">
         <v>162</v>
       </c>
@@ -8658,36 +8723,36 @@
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="91"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="93"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="71" t="s">
         <v>147</v>
       </c>
       <c r="J43" s="11" t="s">
@@ -8704,26 +8769,26 @@
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="60" t="s">
+      <c r="P43" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" s="60" t="s">
+      <c r="Q43" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R43" s="63" t="s">
+      <c r="R43" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="59"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="73"/>
       <c r="J44" s="18" t="s">
         <v>167</v>
       </c>
@@ -8738,36 +8803,36 @@
       </c>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="65"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="67"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="71" t="s">
         <v>174</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -8784,26 +8849,26 @@
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="72" t="s">
+      <c r="R45" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="58"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="1" t="s">
         <v>173</v>
       </c>
@@ -8818,20 +8883,20 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="73"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="76"/>
     </row>
     <row r="47" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="59"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="73"/>
       <c r="J47" s="18" t="s">
         <v>176</v>
       </c>
@@ -8850,36 +8915,36 @@
       <c r="O47" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="86"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="101"/>
     </row>
     <row r="48" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="71" t="s">
         <v>193</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -8896,26 +8961,26 @@
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="60" t="s">
+      <c r="P48" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="60" t="s">
+      <c r="Q48" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R48" s="63" t="s">
+      <c r="R48" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="58"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="1" t="s">
         <v>182</v>
       </c>
@@ -8930,20 +8995,20 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="64"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="66"/>
     </row>
     <row r="50" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="58"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="1" t="s">
         <v>197</v>
       </c>
@@ -8958,36 +9023,36 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="64"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="66"/>
     </row>
     <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="54" t="s">
+      <c r="G51" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="54" t="s">
+      <c r="H51" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="57" t="s">
+      <c r="I51" s="71" t="s">
         <v>193</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -9004,26 +9069,26 @@
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="60" t="s">
+      <c r="P51" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q51" s="60" t="s">
+      <c r="Q51" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R51" s="63" t="s">
+      <c r="R51" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="58"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="1" t="s">
         <v>198</v>
       </c>
@@ -9038,36 +9103,36 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="64"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="66"/>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="87" t="s">
+      <c r="E53" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H53" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="84" t="s">
+      <c r="I53" s="90" t="s">
         <v>201</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -9088,26 +9153,26 @@
       <c r="O53" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q53" s="60" t="s">
+      <c r="Q53" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R53" s="72" t="s">
+      <c r="R53" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="85"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="104"/>
       <c r="J54" s="18" t="s">
         <v>198</v>
       </c>
@@ -9124,36 +9189,36 @@
         <v>207</v>
       </c>
       <c r="O54" s="19"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="86"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="101"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="E55" s="87" t="s">
+      <c r="E55" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G55" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="57" t="s">
+      <c r="I55" s="71" t="s">
         <v>214</v>
       </c>
       <c r="J55" s="11" t="s">
@@ -9170,26 +9235,26 @@
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="60" t="s">
+      <c r="P55" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q55" s="60" t="s">
+      <c r="Q55" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R55" s="63" t="s">
+      <c r="R55" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="58"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="1" t="s">
         <v>182</v>
       </c>
@@ -9204,20 +9269,20 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="64"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="66"/>
     </row>
     <row r="57" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="58"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="1" t="s">
         <v>197</v>
       </c>
@@ -9232,20 +9297,20 @@
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="64"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="66"/>
     </row>
     <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="58"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="1" t="s">
         <v>210</v>
       </c>
@@ -9260,20 +9325,20 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="64"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="66"/>
     </row>
     <row r="59" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="58"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="1" t="s">
         <v>215</v>
       </c>
@@ -9288,20 +9353,20 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="64"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="66"/>
     </row>
     <row r="60" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="58"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="1" t="s">
         <v>213</v>
       </c>
@@ -9316,20 +9381,20 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="64"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="66"/>
     </row>
     <row r="61" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="82"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="79"/>
       <c r="J61" s="14" t="s">
         <v>218</v>
       </c>
@@ -9344,36 +9409,36 @@
       </c>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="79"/>
-      <c r="R61" s="81"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="78"/>
     </row>
     <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="E62" s="87" t="s">
+      <c r="E62" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="F62" s="60" t="s">
+      <c r="F62" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G62" s="54" t="s">
+      <c r="G62" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="54" t="s">
+      <c r="H62" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="71" t="s">
         <v>222</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -9390,26 +9455,26 @@
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
-      <c r="P62" s="60" t="s">
+      <c r="P62" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q62" s="60" t="s">
+      <c r="Q62" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R62" s="72" t="s">
+      <c r="R62" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="58"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="1" t="s">
         <v>223</v>
       </c>
@@ -9428,36 +9493,36 @@
       <c r="O63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="73"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="76"/>
     </row>
     <row r="64" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="E64" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="60" t="s">
+      <c r="F64" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G64" s="54" t="s">
+      <c r="G64" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="54" t="s">
+      <c r="H64" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="57" t="s">
+      <c r="I64" s="71" t="s">
         <v>232</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -9474,26 +9539,26 @@
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
-      <c r="P64" s="60" t="s">
+      <c r="P64" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="60" t="s">
+      <c r="Q64" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R64" s="72" t="s">
+      <c r="R64" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="83"/>
       <c r="J65" s="1" t="s">
         <v>223</v>
       </c>
@@ -9512,36 +9577,36 @@
       <c r="O65" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="73"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="76"/>
     </row>
     <row r="66" spans="1:18" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G66" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="54" t="s">
+      <c r="H66" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="I66" s="57" t="s">
+      <c r="I66" s="71" t="s">
         <v>147</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -9558,26 +9623,26 @@
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
-      <c r="P66" s="60" t="s">
+      <c r="P66" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q66" s="60" t="s">
+      <c r="Q66" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R66" s="63" t="s">
+      <c r="R66" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="1" t="s">
         <v>240</v>
       </c>
@@ -9592,36 +9657,36 @@
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="77"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="96"/>
     </row>
     <row r="68" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="D68" s="60" t="s">
+      <c r="D68" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F68" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G68" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="H68" s="97" t="s">
         <v>386</v>
       </c>
-      <c r="I68" s="57" t="s">
+      <c r="I68" s="71" t="s">
         <v>147</v>
       </c>
       <c r="J68" s="11" t="s">
@@ -9638,26 +9703,26 @@
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
-      <c r="P68" s="60" t="s">
+      <c r="P68" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q68" s="60" t="s">
+      <c r="Q68" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R68" s="63" t="s">
+      <c r="R68" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="75"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="83"/>
       <c r="J69" s="1" t="s">
         <v>244</v>
       </c>
@@ -9672,36 +9737,36 @@
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="77"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="96"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G70" s="54" t="s">
+      <c r="G70" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="97" t="s">
         <v>386</v>
       </c>
-      <c r="I70" s="57" t="s">
+      <c r="I70" s="71" t="s">
         <v>147</v>
       </c>
       <c r="J70" s="11" t="s">
@@ -9718,26 +9783,26 @@
       </c>
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
-      <c r="P70" s="60" t="s">
+      <c r="P70" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="60" t="s">
+      <c r="Q70" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R70" s="63" t="s">
+      <c r="R70" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="75"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="83"/>
       <c r="J71" s="1" t="s">
         <v>252</v>
       </c>
@@ -9752,36 +9817,36 @@
       </c>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="77"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="96"/>
     </row>
     <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="60" t="s">
+      <c r="D72" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="E72" s="87" t="s">
+      <c r="E72" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="F72" s="60" t="s">
+      <c r="F72" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="54" t="s">
+      <c r="G72" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="57" t="s">
+      <c r="I72" s="71" t="s">
         <v>256</v>
       </c>
       <c r="J72" s="11" t="s">
@@ -9798,26 +9863,26 @@
       </c>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
-      <c r="P72" s="60" t="s">
+      <c r="P72" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q72" s="60" t="s">
+      <c r="Q72" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R72" s="63" t="s">
+      <c r="R72" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="58"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="1" t="s">
         <v>182</v>
       </c>
@@ -9832,20 +9897,20 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="64"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="66"/>
     </row>
     <row r="74" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="58"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="1" t="s">
         <v>197</v>
       </c>
@@ -9860,20 +9925,20 @@
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="64"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="66"/>
     </row>
     <row r="75" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="58"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="1" t="s">
         <v>257</v>
       </c>
@@ -9888,36 +9953,36 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="64"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="66"/>
     </row>
     <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="D76" s="60" t="s">
+      <c r="D76" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="E76" s="87" t="s">
+      <c r="E76" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="F76" s="60" t="s">
+      <c r="F76" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="54" t="s">
+      <c r="H76" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="57" t="s">
+      <c r="I76" s="71" t="s">
         <v>262</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -9934,26 +9999,26 @@
       </c>
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
-      <c r="P76" s="60" t="s">
+      <c r="P76" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q76" s="60" t="s">
+      <c r="Q76" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R76" s="72" t="s">
+      <c r="R76" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="1" t="s">
         <v>182</v>
       </c>
@@ -9968,20 +10033,20 @@
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="73"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="76"/>
     </row>
     <row r="78" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="67"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="58"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="1" t="s">
         <v>263</v>
       </c>
@@ -10000,36 +10065,36 @@
       <c r="O78" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="73"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="76"/>
     </row>
     <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="66" t="s">
+      <c r="A79" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D79" s="60" t="s">
+      <c r="D79" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E79" s="87" t="s">
+      <c r="E79" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="F79" s="60" t="s">
+      <c r="F79" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G79" s="54" t="s">
+      <c r="G79" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="54" t="s">
+      <c r="H79" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="57" t="s">
+      <c r="I79" s="71" t="s">
         <v>273</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -10046,26 +10111,26 @@
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
-      <c r="P79" s="60" t="s">
+      <c r="P79" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q79" s="60" t="s">
+      <c r="Q79" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R79" s="63" t="s">
+      <c r="R79" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="58"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="1" t="s">
         <v>182</v>
       </c>
@@ -10080,20 +10145,20 @@
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="64"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="66"/>
     </row>
     <row r="81" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="58"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="1" t="s">
         <v>197</v>
       </c>
@@ -10108,20 +10173,20 @@
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="64"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="66"/>
     </row>
     <row r="82" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="68"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="59"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="18" t="s">
         <v>270</v>
       </c>
@@ -10136,36 +10201,36 @@
       </c>
       <c r="N82" s="19"/>
       <c r="O82" s="19"/>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="65"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="67"/>
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="E83" s="87" t="s">
+      <c r="E83" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="G83" s="54" t="s">
+      <c r="G83" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="57" t="s">
+      <c r="I83" s="71" t="s">
         <v>277</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -10182,26 +10247,26 @@
       </c>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
-      <c r="P83" s="60" t="s">
+      <c r="P83" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q83" s="60" t="s">
+      <c r="Q83" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R83" s="63" t="s">
+      <c r="R83" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="58"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="1" t="s">
         <v>182</v>
       </c>
@@ -10216,20 +10281,20 @@
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="64"/>
+      <c r="P84" s="63"/>
+      <c r="Q84" s="63"/>
+      <c r="R84" s="66"/>
     </row>
     <row r="85" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="58"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="1" t="s">
         <v>197</v>
       </c>
@@ -10244,20 +10309,20 @@
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="64"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="66"/>
     </row>
     <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="58"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="1" t="s">
         <v>283</v>
       </c>
@@ -10272,20 +10337,20 @@
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="64"/>
+      <c r="P86" s="63"/>
+      <c r="Q86" s="63"/>
+      <c r="R86" s="66"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="58"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="24" t="s">
         <v>280</v>
       </c>
@@ -10300,20 +10365,20 @@
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="64"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
+      <c r="R87" s="66"/>
     </row>
     <row r="88" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="71"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="59"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="18" t="s">
         <v>284</v>
       </c>
@@ -10328,36 +10393,36 @@
       </c>
       <c r="N88" s="19"/>
       <c r="O88" s="19"/>
-      <c r="P88" s="62"/>
-      <c r="Q88" s="62"/>
-      <c r="R88" s="65"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="67"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
+      <c r="A89" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="E89" s="87" t="s">
+      <c r="E89" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="F89" s="60" t="s">
+      <c r="F89" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="G89" s="60" t="s">
+      <c r="G89" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="60" t="s">
+      <c r="H89" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="57" t="s">
+      <c r="I89" s="71" t="s">
         <v>288</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -10374,26 +10439,26 @@
       </c>
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
-      <c r="P89" s="60" t="s">
+      <c r="P89" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q89" s="60" t="s">
+      <c r="Q89" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R89" s="63" t="s">
+      <c r="R89" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="58"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="1" t="s">
         <v>182</v>
       </c>
@@ -10408,20 +10473,20 @@
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="64"/>
+      <c r="P90" s="63"/>
+      <c r="Q90" s="63"/>
+      <c r="R90" s="66"/>
     </row>
     <row r="91" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="58"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="1" t="s">
         <v>197</v>
       </c>
@@ -10436,20 +10501,20 @@
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="61"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="64"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="66"/>
     </row>
     <row r="92" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="58"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="1" t="s">
         <v>283</v>
       </c>
@@ -10464,20 +10529,20 @@
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="61"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="64"/>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="63"/>
+      <c r="R92" s="66"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="58"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="24" t="s">
         <v>280</v>
       </c>
@@ -10492,20 +10557,20 @@
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="61"/>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="64"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="66"/>
     </row>
     <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="58"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="1" t="s">
         <v>284</v>
       </c>
@@ -10520,20 +10585,20 @@
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="61"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="64"/>
+      <c r="P94" s="63"/>
+      <c r="Q94" s="63"/>
+      <c r="R94" s="66"/>
     </row>
     <row r="95" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="71"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="59"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="18" t="s">
         <v>289</v>
       </c>
@@ -10548,36 +10613,36 @@
       </c>
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
-      <c r="P95" s="62"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="65"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="64"/>
+      <c r="R95" s="67"/>
     </row>
     <row r="96" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="D96" s="60" t="s">
+      <c r="D96" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="E96" s="87" t="s">
+      <c r="E96" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="F96" s="60" t="s">
+      <c r="F96" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="60" t="s">
+      <c r="H96" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I96" s="57" t="s">
+      <c r="I96" s="71" t="s">
         <v>329</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -10594,26 +10659,26 @@
       </c>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
-      <c r="P96" s="60" t="s">
+      <c r="P96" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q96" s="60" t="s">
+      <c r="Q96" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R96" s="63" t="s">
+      <c r="R96" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="58"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="24" t="s">
         <v>304</v>
       </c>
@@ -10628,20 +10693,20 @@
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="61"/>
-      <c r="R97" s="64"/>
+      <c r="P97" s="63"/>
+      <c r="Q97" s="63"/>
+      <c r="R97" s="66"/>
     </row>
     <row r="98" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="70"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="58"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="24" t="s">
         <v>307</v>
       </c>
@@ -10656,20 +10721,20 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="61"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="63"/>
+      <c r="R98" s="66"/>
     </row>
     <row r="99" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="61"/>
-      <c r="I99" s="58"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="1" t="s">
         <v>308</v>
       </c>
@@ -10684,20 +10749,20 @@
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
-      <c r="P99" s="61"/>
-      <c r="Q99" s="61"/>
-      <c r="R99" s="64"/>
+      <c r="P99" s="63"/>
+      <c r="Q99" s="63"/>
+      <c r="R99" s="66"/>
     </row>
     <row r="100" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="70"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="58"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="1" t="s">
         <v>313</v>
       </c>
@@ -10712,20 +10777,20 @@
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="61"/>
-      <c r="R100" s="64"/>
+      <c r="P100" s="63"/>
+      <c r="Q100" s="63"/>
+      <c r="R100" s="66"/>
     </row>
     <row r="101" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="58"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="1" t="s">
         <v>314</v>
       </c>
@@ -10740,20 +10805,20 @@
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
-      <c r="P101" s="61"/>
-      <c r="Q101" s="61"/>
-      <c r="R101" s="64"/>
+      <c r="P101" s="63"/>
+      <c r="Q101" s="63"/>
+      <c r="R101" s="66"/>
     </row>
     <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="58"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="1" t="s">
         <v>318</v>
       </c>
@@ -10768,20 +10833,20 @@
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
-      <c r="P102" s="61"/>
-      <c r="Q102" s="61"/>
-      <c r="R102" s="64"/>
+      <c r="P102" s="63"/>
+      <c r="Q102" s="63"/>
+      <c r="R102" s="66"/>
     </row>
     <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="58"/>
+      <c r="A103" s="69"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="1" t="s">
         <v>319</v>
       </c>
@@ -10796,20 +10861,20 @@
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
-      <c r="P103" s="61"/>
-      <c r="Q103" s="61"/>
-      <c r="R103" s="64"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="63"/>
+      <c r="R103" s="66"/>
     </row>
     <row r="104" spans="1:18" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="95"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="82"/>
+      <c r="A104" s="80"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="79"/>
       <c r="J104" s="14" t="s">
         <v>324</v>
       </c>
@@ -10824,36 +10889,36 @@
       </c>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="81"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="78"/>
     </row>
     <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E105" s="87" t="s">
+      <c r="E105" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="F105" s="60" t="s">
+      <c r="F105" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="G105" s="60" t="s">
+      <c r="G105" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="57" t="s">
+      <c r="I105" s="71" t="s">
         <v>334</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -10870,26 +10935,26 @@
       </c>
       <c r="N105" s="12"/>
       <c r="O105" s="12"/>
-      <c r="P105" s="60" t="s">
+      <c r="P105" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q105" s="60" t="s">
+      <c r="Q105" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="R105" s="63" t="s">
+      <c r="R105" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="58"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="24" t="s">
         <v>304</v>
       </c>
@@ -10904,20 +10969,20 @@
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
-      <c r="P106" s="61"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="P106" s="63"/>
+      <c r="Q106" s="63"/>
+      <c r="R106" s="66"/>
     </row>
     <row r="107" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="58"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="72"/>
       <c r="J107" s="24" t="s">
         <v>307</v>
       </c>
@@ -10932,20 +10997,20 @@
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="61"/>
-      <c r="Q107" s="61"/>
-      <c r="R107" s="64"/>
+      <c r="P107" s="63"/>
+      <c r="Q107" s="63"/>
+      <c r="R107" s="66"/>
     </row>
     <row r="108" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="58"/>
+      <c r="A108" s="69"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="1" t="s">
         <v>308</v>
       </c>
@@ -10960,20 +11025,20 @@
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="61"/>
-      <c r="Q108" s="61"/>
-      <c r="R108" s="64"/>
+      <c r="P108" s="63"/>
+      <c r="Q108" s="63"/>
+      <c r="R108" s="66"/>
     </row>
     <row r="109" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="70"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="58"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="72"/>
       <c r="J109" s="1" t="s">
         <v>313</v>
       </c>
@@ -10988,20 +11053,20 @@
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="61"/>
-      <c r="Q109" s="61"/>
-      <c r="R109" s="64"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
+      <c r="R109" s="66"/>
     </row>
     <row r="110" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="61"/>
-      <c r="I110" s="58"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="1" t="s">
         <v>314</v>
       </c>
@@ -11016,20 +11081,20 @@
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="61"/>
-      <c r="Q110" s="61"/>
-      <c r="R110" s="64"/>
+      <c r="P110" s="63"/>
+      <c r="Q110" s="63"/>
+      <c r="R110" s="66"/>
     </row>
     <row r="111" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="58"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="72"/>
       <c r="J111" s="24" t="s">
         <v>330</v>
       </c>
@@ -11044,20 +11109,20 @@
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="61"/>
-      <c r="Q111" s="61"/>
-      <c r="R111" s="64"/>
+      <c r="P111" s="63"/>
+      <c r="Q111" s="63"/>
+      <c r="R111" s="66"/>
     </row>
     <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="58"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="1" t="s">
         <v>335</v>
       </c>
@@ -11072,20 +11137,20 @@
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="61"/>
-      <c r="Q112" s="61"/>
-      <c r="R112" s="64"/>
+      <c r="P112" s="63"/>
+      <c r="Q112" s="63"/>
+      <c r="R112" s="66"/>
     </row>
     <row r="113" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="71"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="103"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="59"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="73"/>
       <c r="J113" s="18" t="s">
         <v>338</v>
       </c>
@@ -11100,36 +11165,36 @@
       </c>
       <c r="N113" s="19"/>
       <c r="O113" s="19"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="65"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="67"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="69" t="s">
+      <c r="A114" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B114" s="60" t="s">
+      <c r="B114" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C114" s="60" t="s">
+      <c r="C114" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D114" s="60" t="s">
+      <c r="D114" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E114" s="87" t="s">
+      <c r="E114" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="F114" s="60" t="s">
+      <c r="F114" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="G114" s="60" t="s">
+      <c r="G114" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="60" t="s">
+      <c r="H114" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I114" s="57" t="s">
+      <c r="I114" s="71" t="s">
         <v>295</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -11146,26 +11211,26 @@
       </c>
       <c r="N114" s="12"/>
       <c r="O114" s="12"/>
-      <c r="P114" s="60" t="s">
+      <c r="P114" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q114" s="60" t="s">
+      <c r="Q114" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="R114" s="72" t="s">
+      <c r="R114" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="88"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="58"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="72"/>
       <c r="J115" s="1" t="s">
         <v>89</v>
       </c>
@@ -11184,20 +11249,20 @@
       <c r="O115" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="P115" s="61"/>
-      <c r="Q115" s="61"/>
-      <c r="R115" s="73"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="63"/>
+      <c r="R115" s="76"/>
     </row>
     <row r="116" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="95"/>
-      <c r="B116" s="79"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="103"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="82"/>
+      <c r="A116" s="80"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="79"/>
       <c r="J116" s="14" t="s">
         <v>92</v>
       </c>
@@ -11210,45 +11275,315 @@
       </c>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="79"/>
-      <c r="R116" s="96"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
+      <c r="R116" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="360">
-    <mergeCell ref="E96:E104"/>
-    <mergeCell ref="E105:E113"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="P89:P95"/>
-    <mergeCell ref="Q89:Q95"/>
-    <mergeCell ref="R89:R95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="F89:F95"/>
-    <mergeCell ref="G89:G95"/>
-    <mergeCell ref="H89:H95"/>
-    <mergeCell ref="I89:I95"/>
-    <mergeCell ref="E89:E95"/>
-    <mergeCell ref="A105:A113"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="C105:C113"/>
-    <mergeCell ref="D105:D113"/>
-    <mergeCell ref="F105:F113"/>
-    <mergeCell ref="G105:G113"/>
-    <mergeCell ref="H105:H113"/>
-    <mergeCell ref="I105:I113"/>
-    <mergeCell ref="P105:P113"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="P79:P82"/>
+    <mergeCell ref="Q79:Q82"/>
+    <mergeCell ref="R79:R82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="R83:R88"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="R72:R75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="P55:P61"/>
+    <mergeCell ref="Q55:Q61"/>
+    <mergeCell ref="R55:R61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="I55:I61"/>
+    <mergeCell ref="H55:H61"/>
+    <mergeCell ref="G55:G61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="R48:R50"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="P48:P50"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="P40:P42"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="R40:R42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="P37:P39"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="R31:R36"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="Q27:Q30"/>
+    <mergeCell ref="R27:R30"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="Q114:Q116"/>
     <mergeCell ref="R114:R116"/>
     <mergeCell ref="R96:R104"/>
@@ -11273,309 +11608,39 @@
     <mergeCell ref="P114:P116"/>
     <mergeCell ref="Q105:Q113"/>
     <mergeCell ref="R105:R113"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R31:R36"/>
-    <mergeCell ref="Q31:Q36"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="Q27:Q30"/>
-    <mergeCell ref="R27:R30"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="P40:P42"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="R40:R42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="Q48:Q50"/>
-    <mergeCell ref="R48:R50"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="P48:P50"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="P55:P61"/>
-    <mergeCell ref="Q55:Q61"/>
-    <mergeCell ref="R55:R61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="I55:I61"/>
-    <mergeCell ref="H55:H61"/>
-    <mergeCell ref="G55:G61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="P79:P82"/>
-    <mergeCell ref="Q79:Q82"/>
-    <mergeCell ref="R79:R82"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="R83:R88"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="C105:C113"/>
+    <mergeCell ref="D105:D113"/>
+    <mergeCell ref="F105:F113"/>
+    <mergeCell ref="G105:G113"/>
+    <mergeCell ref="H105:H113"/>
+    <mergeCell ref="I105:I113"/>
+    <mergeCell ref="P105:P113"/>
+    <mergeCell ref="P89:P95"/>
+    <mergeCell ref="Q89:Q95"/>
+    <mergeCell ref="R89:R95"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="F89:F95"/>
+    <mergeCell ref="G89:G95"/>
+    <mergeCell ref="H89:H95"/>
+    <mergeCell ref="I89:I95"/>
+    <mergeCell ref="E89:E95"/>
+    <mergeCell ref="E96:E104"/>
+    <mergeCell ref="E105:E113"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
